--- a/timetabling_GA/results/PS_CT002_HK2/LichHocKy_PS_CT002_HK2.xlsx
+++ b/timetabling_GA/results/PS_CT002_HK2/LichHocKy_PS_CT002_HK2.xlsx
@@ -69,7 +69,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -80,12 +80,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="004A86E8"/>
         <bgColor rgb="004A86E8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFCCCB"/>
-        <bgColor rgb="00FFCCCB"/>
       </patternFill>
     </fill>
     <fill>
@@ -121,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -145,9 +139,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -515,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,7 +550,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 1 TIMETABLE (08/12/2025 - 14/12/2025)</t>
+          <t>WEEK 1 TIMETABLE (01/12/2025 - 07/12/2025)</t>
         </is>
       </c>
     </row>
@@ -582,50 +573,50 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-08/12</t>
+01/12</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-09/12</t>
+02/12</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-10/12</t>
+03/12</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-11/12</t>
+04/12</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-12/12</t>
+05/12</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-13/12</t>
+06/12</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-14/12</t>
+07/12</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -638,49 +629,20 @@
       </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Practice)
-Room: TH3
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>L2</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
+      <c r="I8" s="8" t="inlineStr">
         <is>
           <t>MH009
 (Theory)
-Room: LT3
+Room: LT1
 Lecturer: GV003</t>
         </is>
       </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -742,7 +704,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 10 TIMETABLE (09/02/2026 - 15/02/2026)</t>
+          <t>WEEK 10 TIMETABLE (02/02/2026 - 08/02/2026)</t>
         </is>
       </c>
     </row>
@@ -765,50 +727,50 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-09/02</t>
+02/02</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-10/02</t>
+03/02</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-11/02</t>
+04/02</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-12/02</t>
+05/02</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-13/02</t>
+06/02</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-14/02</t>
+07/02</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-15/02</t>
+08/02</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -820,18 +782,18 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT3
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9"/>
@@ -896,7 +858,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 11 TIMETABLE (16/02/2026 - 22/02/2026)</t>
+          <t>WEEK 11 TIMETABLE (09/02/2026 - 15/02/2026)</t>
         </is>
       </c>
     </row>
@@ -919,50 +881,50 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-16/02</t>
+09/02</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-17/02</t>
+10/02</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-18/02</t>
+11/02</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-19/02</t>
+12/02</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-20/02</t>
+13/02</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-21/02</t>
+14/02</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-22/02</t>
+15/02</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -974,18 +936,18 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT3
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9"/>
@@ -1050,7 +1012,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 12 TIMETABLE (23/02/2026 - 01/03/2026)</t>
+          <t>WEEK 12 TIMETABLE (16/02/2026 - 22/02/2026)</t>
         </is>
       </c>
     </row>
@@ -1073,50 +1035,50 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-23/02</t>
+16/02</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-24/02</t>
+17/02</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-25/02</t>
+18/02</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-26/02</t>
+19/02</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-27/02</t>
+20/02</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-28/02</t>
+21/02</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-01/03</t>
+22/02</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1128,18 +1090,18 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT3
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9"/>
@@ -1204,7 +1166,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 13 TIMETABLE (02/03/2026 - 08/03/2026)</t>
+          <t>WEEK 13 TIMETABLE (23/02/2026 - 01/03/2026)</t>
         </is>
       </c>
     </row>
@@ -1227,50 +1189,50 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-02/03</t>
+23/02</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-03/03</t>
+24/02</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-04/03</t>
+25/02</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-05/03</t>
+26/02</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-06/03</t>
+27/02</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-07/03</t>
+28/02</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-08/03</t>
+01/03</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1282,18 +1244,18 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT3
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9"/>
@@ -1358,7 +1320,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 14 TIMETABLE (09/03/2026 - 15/03/2026)</t>
+          <t>WEEK 14 TIMETABLE (02/03/2026 - 08/03/2026)</t>
         </is>
       </c>
     </row>
@@ -1381,50 +1343,50 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-09/03</t>
+02/03</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-10/03</t>
+03/03</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-11/03</t>
+04/03</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-12/03</t>
+05/03</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-13/03</t>
+06/03</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-14/03</t>
+07/03</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-15/03</t>
+08/03</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1436,18 +1398,18 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT3
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9"/>
@@ -1512,7 +1474,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 15 TIMETABLE (16/03/2026 - 22/03/2026)</t>
+          <t>WEEK 15 TIMETABLE (09/03/2026 - 15/03/2026)</t>
         </is>
       </c>
     </row>
@@ -1535,50 +1497,50 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-16/03</t>
+09/03</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-17/03</t>
+10/03</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-18/03</t>
+11/03</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-19/03</t>
+12/03</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-20/03</t>
+13/03</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-21/03</t>
+14/03</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-22/03</t>
+15/03</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1590,18 +1552,18 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT3
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9"/>
@@ -1622,7 +1584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1666,7 +1628,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 2 TIMETABLE (15/12/2025 - 21/12/2025)</t>
+          <t>WEEK 2 TIMETABLE (08/12/2025 - 14/12/2025)</t>
         </is>
       </c>
     </row>
@@ -1689,50 +1651,50 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-15/12</t>
+08/12</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-16/12</t>
+09/12</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-17/12</t>
+10/12</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-18/12</t>
+11/12</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-19/12</t>
+12/12</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-20/12</t>
+13/12</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-21/12</t>
+14/12</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1745,49 +1707,20 @@
       </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Practice)
-Room: TH3
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>L2</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
+      <c r="I8" s="8" t="inlineStr">
         <is>
           <t>MH009
 (Theory)
-Room: LT3
+Room: LT1
 Lecturer: GV003</t>
         </is>
       </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1805,7 +1738,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1849,7 +1782,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 3 TIMETABLE (22/12/2025 - 28/12/2025)</t>
+          <t>WEEK 3 TIMETABLE (15/12/2025 - 21/12/2025)</t>
         </is>
       </c>
     </row>
@@ -1872,50 +1805,50 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-22/12</t>
+15/12</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-23/12</t>
+16/12</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-24/12</t>
+17/12</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-25/12</t>
+18/12</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-26/12</t>
+19/12</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-27/12</t>
+20/12</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-28/12</t>
+21/12</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1928,49 +1861,20 @@
       </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Practice)
-Room: TH3
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>L2</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
+      <c r="I8" s="8" t="inlineStr">
         <is>
           <t>MH009
 (Theory)
-Room: LT3
+Room: LT1
 Lecturer: GV003</t>
         </is>
       </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1988,7 +1892,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2032,7 +1936,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 4 TIMETABLE (29/12/2025 - 04/01/2026)</t>
+          <t>WEEK 4 TIMETABLE (22/12/2025 - 28/12/2025)</t>
         </is>
       </c>
     </row>
@@ -2055,50 +1959,50 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-29/12</t>
+22/12</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-30/12</t>
+23/12</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-31/12</t>
+24/12</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-01/01</t>
+25/12</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-02/01</t>
+26/12</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-03/01</t>
+27/12</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-04/01</t>
+28/12</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2111,49 +2015,20 @@
       </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Practice)
-Room: TH3
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>L2</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
+      <c r="I8" s="8" t="inlineStr">
         <is>
           <t>MH009
 (Theory)
-Room: LT3
+Room: LT1
 Lecturer: GV003</t>
         </is>
       </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -2171,7 +2046,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2215,7 +2090,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 5 TIMETABLE (05/01/2026 - 11/01/2026)</t>
+          <t>WEEK 5 TIMETABLE (29/12/2025 - 04/01/2026)</t>
         </is>
       </c>
     </row>
@@ -2238,50 +2113,50 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-05/01</t>
+29/12</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-06/01</t>
+30/12</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-07/01</t>
+31/12</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-08/01</t>
+01/01</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-09/01</t>
+02/01</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-10/01</t>
+03/01</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-11/01</t>
+04/01</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2294,49 +2169,20 @@
       </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Practice)
-Room: TH3
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>L2</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
+      <c r="I8" s="8" t="inlineStr">
         <is>
           <t>MH009
 (Theory)
-Room: LT3
+Room: LT1
 Lecturer: GV003</t>
         </is>
       </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -2354,7 +2200,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2398,7 +2244,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 6 TIMETABLE (12/01/2026 - 18/01/2026)</t>
+          <t>WEEK 6 TIMETABLE (05/01/2026 - 11/01/2026)</t>
         </is>
       </c>
     </row>
@@ -2421,50 +2267,50 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-12/01</t>
+05/01</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-13/01</t>
+06/01</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-14/01</t>
+07/01</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-15/01</t>
+08/01</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-16/01</t>
+09/01</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-17/01</t>
+10/01</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-18/01</t>
+11/01</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2477,49 +2323,20 @@
       </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Practice)
-Room: TH3
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>L2</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
+      <c r="I8" s="8" t="inlineStr">
         <is>
           <t>MH009
 (Theory)
-Room: LT3
+Room: LT1
 Lecturer: GV003</t>
         </is>
       </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -2537,7 +2354,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2581,7 +2398,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 7 TIMETABLE (19/01/2026 - 25/01/2026)</t>
+          <t>WEEK 7 TIMETABLE (12/01/2026 - 18/01/2026)</t>
         </is>
       </c>
     </row>
@@ -2604,50 +2421,50 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-19/01</t>
+12/01</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-20/01</t>
+13/01</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-21/01</t>
+14/01</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-22/01</t>
+15/01</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-23/01</t>
+16/01</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-24/01</t>
+17/01</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-25/01</t>
+18/01</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2660,49 +2477,20 @@
       </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Practice)
-Room: TH3
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>L2</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
+      <c r="I8" s="8" t="inlineStr">
         <is>
           <t>MH009
 (Theory)
-Room: LT3
+Room: LT1
 Lecturer: GV003</t>
         </is>
       </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -2720,7 +2508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2764,7 +2552,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 8 TIMETABLE (26/01/2026 - 01/02/2026)</t>
+          <t>WEEK 8 TIMETABLE (19/01/2026 - 25/01/2026)</t>
         </is>
       </c>
     </row>
@@ -2787,50 +2575,50 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-26/01</t>
+19/01</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-27/01</t>
+20/01</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-28/01</t>
+21/01</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-29/01</t>
+22/01</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-30/01</t>
+23/01</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-31/01</t>
+24/01</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-01/02</t>
+25/01</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2843,49 +2631,20 @@
       </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Practice)
-Room: TH3
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>L2</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
+      <c r="I8" s="8" t="inlineStr">
         <is>
           <t>MH009
 (Theory)
-Room: LT3
+Room: LT1
 Lecturer: GV003</t>
         </is>
       </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -2947,7 +2706,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 9 TIMETABLE (02/02/2026 - 08/02/2026)</t>
+          <t>WEEK 9 TIMETABLE (26/01/2026 - 01/02/2026)</t>
         </is>
       </c>
     </row>
@@ -2970,50 +2729,50 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-02/02</t>
+26/01</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-03/02</t>
+27/01</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-04/02</t>
+28/01</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-05/02</t>
+29/01</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-06/02</t>
+30/01</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-07/02</t>
+31/01</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-08/02</t>
+01/02</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -3025,18 +2784,18 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT3
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9"/>

--- a/timetabling_GA/results/PS_CT002_HK2/LichHocKy_PS_CT002_HK2.xlsx
+++ b/timetabling_GA/results/PS_CT002_HK2/LichHocKy_PS_CT002_HK2.xlsx
@@ -69,7 +69,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -86,6 +86,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00BDD7EE"/>
         <bgColor rgb="00BDD7EE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFCCCB"/>
+        <bgColor rgb="00FFCCCB"/>
       </patternFill>
     </fill>
   </fills>
@@ -115,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -139,6 +145,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -506,7 +515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,12 +625,12 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -630,19 +639,156 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>MH010
+(Theory)
+Room: LT3
+Lecturer: GV005</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH009
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Practice)
+Room: TH2
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH004
 (Theory)
 Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9"/>
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>MH004
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>MH010
+(Practice)
+Room: TH3
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -660,7 +806,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,12 +916,12 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -784,19 +930,106 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>MH010
+(Theory)
+Room: LT3
+Lecturer: GV005</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH009
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH004
 (Theory)
 Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9"/>
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -814,7 +1047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -924,12 +1157,12 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -938,19 +1171,106 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>MH010
+(Theory)
+Room: LT3
+Lecturer: GV005</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH009
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH004
 (Theory)
 Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9"/>
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -968,7 +1288,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1078,12 +1398,12 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -1092,19 +1412,106 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>MH010
+(Theory)
+Room: LT3
+Lecturer: GV005</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH009
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH004
 (Theory)
 Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9"/>
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1122,7 +1529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1232,12 +1639,12 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -1246,19 +1653,106 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>MH010
+(Theory)
+Room: LT3
+Lecturer: GV005</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH009
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH004
 (Theory)
 Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9"/>
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1276,7 +1770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1386,12 +1880,12 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -1400,19 +1894,106 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>MH010
+(Theory)
+Room: LT3
+Lecturer: GV005</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH009
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH004
 (Theory)
 Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9"/>
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1430,7 +2011,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1540,12 +2121,12 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -1554,19 +2135,106 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>MH010
+(Theory)
+Room: LT3
+Lecturer: GV005</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH009
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH004
 (Theory)
 Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9"/>
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1584,7 +2252,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1694,12 +2362,12 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -1708,19 +2376,156 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>MH010
+(Theory)
+Room: LT3
+Lecturer: GV005</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH009
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Practice)
+Room: TH2
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH004
 (Theory)
 Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9"/>
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>MH004
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>MH010
+(Practice)
+Room: TH3
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1738,7 +2543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1848,12 +2653,12 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -1862,19 +2667,156 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>MH010
+(Theory)
+Room: LT3
+Lecturer: GV005</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH009
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Practice)
+Room: TH2
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH004
 (Theory)
 Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9"/>
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>MH004
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>MH010
+(Practice)
+Room: TH3
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1892,7 +2834,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2002,12 +2944,12 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -2016,19 +2958,156 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>MH010
+(Theory)
+Room: LT3
+Lecturer: GV005</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH009
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Practice)
+Room: TH2
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH004
 (Theory)
 Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9"/>
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>MH004
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>MH010
+(Practice)
+Room: TH3
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -2046,7 +3125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2156,12 +3235,12 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -2170,19 +3249,156 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>MH010
+(Theory)
+Room: LT3
+Lecturer: GV005</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH009
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Practice)
+Room: TH2
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH004
 (Theory)
 Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9"/>
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>MH004
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>MH010
+(Practice)
+Room: TH3
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -2200,7 +3416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2310,12 +3526,12 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -2324,19 +3540,135 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>MH010
+(Theory)
+Room: LT3
+Lecturer: GV005</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH009
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH004
 (Theory)
 Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9"/>
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -2354,7 +3686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2464,12 +3796,12 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -2478,19 +3810,135 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>MH010
+(Theory)
+Room: LT3
+Lecturer: GV005</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH009
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH004
 (Theory)
 Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9"/>
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -2508,7 +3956,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2618,12 +4066,12 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -2632,19 +4080,135 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>MH010
+(Theory)
+Room: LT3
+Lecturer: GV005</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH009
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH004
 (Theory)
 Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9"/>
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -2662,7 +4226,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2772,12 +4336,12 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -2786,19 +4350,106 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>MH010
+(Theory)
+Room: LT3
+Lecturer: GV005</t>
+        </is>
+      </c>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH009
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT4
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH004
 (Theory)
 Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9"/>
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>

--- a/timetabling_GA/results/PS_CT002_HK2/LichHocKy_PS_CT002_HK2.xlsx
+++ b/timetabling_GA/results/PS_CT002_HK2/LichHocKy_PS_CT002_HK2.xlsx
@@ -639,22 +639,22 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>MH010
-(Theory)
-Room: LT3
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT2
 Lecturer: GV005</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -666,18 +666,18 @@
         <v>30</v>
       </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>MH003
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH010
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
@@ -695,25 +695,18 @@
         <v>30</v>
       </c>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Theory)
-Room: LT4
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>MH011
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>MH010
 (Practice)
 Room: TH2
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
@@ -734,12 +727,12 @@
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH1
+Lecturer: GV003</t>
         </is>
       </c>
       <c r="I11" s="7" t="inlineStr"/>
@@ -761,31 +754,24 @@
       </c>
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>MH004
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="9" t="inlineStr">
         <is>
-          <t>MH010
+          <t>MH011
 (Practice)
 Room: TH3
 Lecturer: GV005</t>
         </is>
       </c>
-      <c r="I12" s="7" t="inlineStr"/>
+      <c r="I12" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT2
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="J12" s="7" t="inlineStr"/>
     </row>
     <row r="13"/>
@@ -806,7 +792,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +902,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -930,22 +916,22 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>MH010
-(Theory)
-Room: LT3
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT1
 Lecturer: GV005</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -957,79 +943,28 @@
         <v>30</v>
       </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>MH010
+(Theory)
+Room: A101
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH009
 (Theory)
 Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Theory)
-Room: LT4
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12"/>
+    <row r="10"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1047,7 +982,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1157,7 +1092,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1171,22 +1106,22 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>MH010
-(Theory)
-Room: LT3
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT1
 Lecturer: GV005</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1198,79 +1133,28 @@
         <v>30</v>
       </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>MH010
+(Theory)
+Room: A101
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH009
 (Theory)
 Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Theory)
-Room: LT4
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12"/>
+    <row r="10"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1288,7 +1172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1398,7 +1282,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1412,22 +1296,22 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>MH010
-(Theory)
-Room: LT3
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT1
 Lecturer: GV005</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1439,79 +1323,28 @@
         <v>30</v>
       </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>MH010
+(Theory)
+Room: A101
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH009
 (Theory)
 Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Theory)
-Room: LT4
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12"/>
+    <row r="10"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1529,7 +1362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1639,7 +1472,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1653,22 +1486,22 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>MH010
-(Theory)
-Room: LT3
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT1
 Lecturer: GV005</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1680,79 +1513,28 @@
         <v>30</v>
       </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>MH010
+(Theory)
+Room: A101
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH009
 (Theory)
 Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Theory)
-Room: LT4
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12"/>
+    <row r="10"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1770,7 +1552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1880,7 +1662,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1894,22 +1676,22 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>MH010
-(Theory)
-Room: LT3
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT1
 Lecturer: GV005</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1921,79 +1703,28 @@
         <v>30</v>
       </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>MH010
+(Theory)
+Room: A101
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH009
 (Theory)
 Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Theory)
-Room: LT4
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12"/>
+    <row r="10"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -2011,7 +1742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,7 +1852,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2135,22 +1866,22 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>MH010
-(Theory)
-Room: LT3
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT1
 Lecturer: GV005</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -2162,79 +1893,28 @@
         <v>30</v>
       </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>MH010
+(Theory)
+Room: A101
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH009
 (Theory)
 Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Theory)
-Room: LT4
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12"/>
+    <row r="10"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -2252,7 +1932,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2373,74 +2053,7 @@
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>MH010
-(Theory)
-Room: LT3
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>MH003
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Theory)
-Room: LT4
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="F10" s="9" t="inlineStr">
+      <c r="D8" s="9" t="inlineStr">
         <is>
           <t>MH011
 (Practice)
@@ -2448,84 +2061,93 @@
 Lecturer: GV005</t>
         </is>
       </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>MH004
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="H12" s="9" t="inlineStr">
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="9" t="inlineStr">
         <is>
           <t>MH010
 (Practice)
 Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT1
 Lecturer: GV005</t>
         </is>
       </c>
-      <c r="I12" s="7" t="inlineStr"/>
-      <c r="J12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>MH010
+(Theory)
+Room: A101
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT2
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -2543,7 +2165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2664,74 +2286,7 @@
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>MH010
-(Theory)
-Room: LT3
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>MH003
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Theory)
-Room: LT4
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="F10" s="9" t="inlineStr">
+      <c r="D8" s="9" t="inlineStr">
         <is>
           <t>MH011
 (Practice)
@@ -2739,84 +2294,93 @@
 Lecturer: GV005</t>
         </is>
       </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>MH004
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="H12" s="9" t="inlineStr">
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="9" t="inlineStr">
         <is>
           <t>MH010
 (Practice)
 Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT1
 Lecturer: GV005</t>
         </is>
       </c>
-      <c r="I12" s="7" t="inlineStr"/>
-      <c r="J12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>MH010
+(Theory)
+Room: A101
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT2
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -2834,7 +2398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,74 +2519,7 @@
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>MH010
-(Theory)
-Room: LT3
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>MH003
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Theory)
-Room: LT4
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="F10" s="9" t="inlineStr">
+      <c r="D8" s="9" t="inlineStr">
         <is>
           <t>MH011
 (Practice)
@@ -3030,84 +2527,93 @@
 Lecturer: GV005</t>
         </is>
       </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>MH004
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="H12" s="9" t="inlineStr">
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="9" t="inlineStr">
         <is>
           <t>MH010
 (Practice)
 Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT1
 Lecturer: GV005</t>
         </is>
       </c>
-      <c r="I12" s="7" t="inlineStr"/>
-      <c r="J12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>MH010
+(Theory)
+Room: A101
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT2
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -3125,7 +2631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3246,74 +2752,7 @@
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>MH010
-(Theory)
-Room: LT3
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>MH003
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Theory)
-Room: LT4
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="F10" s="9" t="inlineStr">
+      <c r="D8" s="9" t="inlineStr">
         <is>
           <t>MH011
 (Practice)
@@ -3321,84 +2760,93 @@
 Lecturer: GV005</t>
         </is>
       </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>MH004
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="H12" s="9" t="inlineStr">
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="9" t="inlineStr">
         <is>
           <t>MH010
 (Practice)
 Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT1
 Lecturer: GV005</t>
         </is>
       </c>
-      <c r="I12" s="7" t="inlineStr"/>
-      <c r="J12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>MH010
+(Theory)
+Room: A101
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT2
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -3416,7 +2864,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3526,7 +2974,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -3540,22 +2988,22 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>MH010
-(Theory)
-Room: LT3
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT1
 Lecturer: GV005</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -3566,109 +3014,36 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>MH010
+(Theory)
+Room: A101
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH009
 (Theory)
 Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Theory)
-Room: LT4
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-      <c r="I12" s="7" t="inlineStr"/>
-      <c r="J12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13"/>
+    <row r="10"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -3686,7 +3061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3796,7 +3171,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -3810,22 +3185,22 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>MH010
-(Theory)
-Room: LT3
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT1
 Lecturer: GV005</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -3836,109 +3211,36 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>MH010
+(Theory)
+Room: A101
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH009
 (Theory)
 Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Theory)
-Room: LT4
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-      <c r="I12" s="7" t="inlineStr"/>
-      <c r="J12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13"/>
+    <row r="10"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -3956,7 +3258,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4066,7 +3368,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -4080,22 +3382,22 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>MH010
-(Theory)
-Room: LT3
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT1
 Lecturer: GV005</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -4106,109 +3408,36 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>MH010
+(Theory)
+Room: A101
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH009
 (Theory)
 Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Theory)
-Room: LT4
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="9" t="inlineStr">
-        <is>
-          <t>MH003
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-      <c r="I12" s="7" t="inlineStr"/>
-      <c r="J12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13"/>
+    <row r="10"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -4226,7 +3455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4336,7 +3565,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -4350,22 +3579,22 @@
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>MH010
-(Theory)
-Room: LT3
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Theory)
+Room: LT1
 Lecturer: GV005</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -4377,79 +3606,28 @@
         <v>30</v>
       </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>MH003
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>MH010
+(Theory)
+Room: A101
+Lecturer: GV005</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH009
 (Theory)
 Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Theory)
-Room: LT4
-Lecturer: GV005</t>
-        </is>
-      </c>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>MH004
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12"/>
+    <row r="10"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
